--- a/Documents/ApiFoodAdvisr.xlsx
+++ b/Documents/ApiFoodAdvisr.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FoodAdvisr\Source\api\FoodAdvisr\ApiData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FoodAdvisr\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Api_V1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Description</t>
   </si>
@@ -59,15 +59,9 @@
     <t>Get Hotel Details By FHRSID</t>
   </si>
   <si>
-    <t>http://foodadvisr.fire42.com/api/gethoteldetailsbyid</t>
-  </si>
-  <si>
     <t>Get Hotels</t>
   </si>
   <si>
-    <t>http://foodadvisr.fire42.com/api/gethotels</t>
-  </si>
-  <si>
     <t>{"longitude": "1.25172300000000","latitude": "52.79412300000000"}</t>
   </si>
   <si>
@@ -75,6 +69,18 @@
   </si>
   <si>
     <t>{"status":0,"message":"Success","result":[{"FHRSID":94502,"LocalAuthorityBusinessID":"2768","BusinessName":"Eastern Sea Chinese Takeaway","BusinessType":"Takeaway\/sandwich shop","BusinessTypeID":"7844","RatingValue":"4","RatingKey":"fhrs_4_en-GB","RatingDate":"2016-08-30","LocalAuthorityCode":"228","LocalAuthorityName":"Broadland","LocalAuthorityWebSite":"http:\/\/www.broadland.gov.uk","LocalAuthorityEmailAddress":"foodandsafety@broadland.gov.uk","SchemeType":"FHRS","NewRatingPending":"False","Longitude":"1.25172300000000","Latitude":"52.79412300000000","Hygiene":"10","Structural":"5","ConfidenceInManagement":"5","distance":0},{"FHRSID":95578,"LocalAuthorityBusinessID":"2859","BusinessName":"Budgens of Aylsham","BusinessType":"Retailers - supermarkets\/hypermarkets","BusinessTypeID":"7840","RatingValue":"5","RatingKey":"fhrs_5_en-GB","RatingDate":"2017-06-08","LocalAuthorityCode":"228","LocalAuthorityName":"Broadland","LocalAuthorityWebSite":"http:\/\/www.broadland.gov.uk","LocalAuthorityEmailAddress":"foodandsafety@broadland.gov.uk","SchemeType":"FHRS","NewRatingPending":"False","Longitude":"1.25172300000000","Latitude":"52.79412300000000","Hygiene":"0","Structural":"5","ConfidenceInManagement":"0","distance":0},</t>
+  </si>
+  <si>
+    <t>http://foodadvisr.fire42.com/api/v1_gethotels</t>
+  </si>
+  <si>
+    <t>http://foodadvisr.fire42.com/api/v1_gethoteldetailsbyid</t>
+  </si>
+  <si>
+    <t>Get Top 10 Hotels</t>
+  </si>
+  <si>
+    <t>http://foodadvisr.fire42.com/api/v1_gettop10hotels</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,52 +478,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>